--- a/MedicalLink/Templates/BC_VTYTTTRiengLonHon45TLCB.xlsx
+++ b/MedicalLink/Templates/BC_VTYTTTRiengLonHon45TLCB.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>&amp;=[DATA1].THANHTIEN_VTYT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_VTYTTRAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BHYT_THANGLUONGTOITHIEU</t>
+  </si>
+  <si>
+    <t>TLCB</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -343,6 +352,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,22 +381,35 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -666,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,52 +716,53 @@
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="41.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
     <col min="13" max="14" width="14.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="25.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="24.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="17.5703125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -777,10 +815,16 @@
         <v>29</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="T5" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -796,16 +840,16 @@
       <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="11" t="s">
@@ -823,29 +867,35 @@
       <c r="N6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:20" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -862,18 +912,23 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="8">
-        <f>SUM(R6:R6)</f>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8">
+        <f>SUM(S6:S6)</f>
         <v>0</v>
       </c>
+      <c r="T7" s="8">
+        <f>SUM(T6:T6)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="16" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="16"/>
+      <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="14"/>
@@ -882,9 +937,11 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="O9:P9"/>
@@ -892,8 +949,18 @@
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="E2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:R6">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:Q6 T6">
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedicalLink/Templates/BC_VTYTTTRiengLonHon45TLCB.xlsx
+++ b/MedicalLink/Templates/BC_VTYTTTRiengLonHon45TLCB.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>TLCB</t>
+  </si>
+  <si>
+    <t>Tổng tiền mức trần VTYT TT riêng</t>
+  </si>
+  <si>
+    <t>Tổng tiền gói stent 1</t>
+  </si>
+  <si>
+    <t>Tổng tiền stent 2</t>
+  </si>
+  <si>
+    <t>Tổng tiền BHYT thanh toán</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].STENT1</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].STENT2</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BHYT_TT</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GHICHU</t>
   </si>
 </sst>
 </file>
@@ -308,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -363,6 +390,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,7 +417,62 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -703,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="U1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,43 +811,45 @@
     <col min="16" max="16" width="25.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="24.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="17.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="19" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="75.42578125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -818,13 +905,25 @@
         <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="U5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -885,17 +984,29 @@
       <c r="T6" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="U6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -921,14 +1032,27 @@
         <f>SUM(T6:T6)</f>
         <v>0</v>
       </c>
+      <c r="U7" s="8">
+        <f>SUM(U6:U6)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <f>SUM(V6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <f>SUM(W6:W6)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O9" s="21" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="21"/>
+      <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="14"/>
@@ -940,8 +1064,10 @@
       <c r="R10" s="19"/>
       <c r="S10" s="16"/>
       <c r="T10" s="14"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="O9:P9"/>
@@ -950,23 +1076,43 @@
     <mergeCell ref="E2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:Q6 T6">
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
